--- a/DMSNewVSale_2025-12-06_19-53.xlsx
+++ b/DMSNewVSale_2025-12-06_19-53.xlsx
@@ -41,15 +41,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 500 MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ALLERBAN 1MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -557,9 +569,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -719,9 +728,6 @@
     <t>OFLAM 50MG 20 QUICKETAB.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>36.0000</t>
   </si>
   <si>
@@ -753,9 +759,6 @@
   </si>
   <si>
     <t>5:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
   </si>
   <si>
     <t>OXYMET 0.025% PAED.NASAL DROPS 15 ML</t>
@@ -1792,7 +1795,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1825,7 +1828,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1841,7 +1844,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1851,14 +1854,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1867,14 +1870,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1891,7 +1894,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1900,14 +1903,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1924,7 +1927,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1933,14 +1936,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1957,7 +1960,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1973,7 +1976,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1983,14 +1986,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1999,14 +2002,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2023,7 +2026,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2039,7 +2042,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2049,14 +2052,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2065,14 +2068,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2082,14 +2085,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2098,14 +2101,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2115,14 +2118,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2131,14 +2134,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2148,14 +2151,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2164,14 +2167,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2181,14 +2184,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2197,14 +2200,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2214,14 +2217,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2230,14 +2233,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2247,14 +2250,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2263,7 +2266,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2280,14 +2283,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2296,7 +2299,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2313,14 +2316,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2329,14 +2332,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2346,14 +2349,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2362,7 +2365,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2379,14 +2382,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2395,14 +2398,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2412,14 +2415,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2428,14 +2431,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2445,14 +2448,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2461,14 +2464,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2478,14 +2481,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2494,14 +2497,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2511,14 +2514,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2534,13 +2537,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2551,7 +2554,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2573,18 +2576,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2593,14 +2596,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2617,7 +2620,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2626,14 +2629,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2643,14 +2646,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2659,14 +2662,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2676,14 +2679,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2716,7 +2719,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2732,7 +2735,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2742,14 +2745,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2758,14 +2761,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2775,14 +2778,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2791,14 +2794,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2824,14 +2827,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2848,7 +2851,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2864,7 +2867,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2874,14 +2877,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2890,31 +2893,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2923,31 +2926,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2956,31 +2959,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2989,14 +2992,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3006,14 +3009,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3022,7 +3025,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3039,14 +3042,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3055,14 +3058,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3072,14 +3075,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3088,14 +3091,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3105,14 +3108,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3121,7 +3124,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3138,14 +3141,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3154,14 +3157,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3171,14 +3174,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3187,14 +3190,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3204,14 +3207,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3220,31 +3223,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3260,24 +3263,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3286,14 +3289,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3303,14 +3306,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3319,14 +3322,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3352,31 +3355,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3385,31 +3388,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3418,31 +3421,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3451,31 +3454,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3484,28 +3487,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>20</v>
@@ -3517,14 +3520,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3534,14 +3537,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3550,14 +3553,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3567,14 +3570,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3590,7 +3593,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3607,7 +3610,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3623,7 +3626,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3633,14 +3636,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3649,14 +3652,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3666,7 +3669,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3689,7 +3692,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3706,7 +3709,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3722,7 +3725,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3732,14 +3735,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3755,7 +3758,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3765,14 +3768,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3788,7 +3791,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3805,7 +3808,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3821,7 +3824,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3831,14 +3834,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3847,14 +3850,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3864,14 +3867,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3887,24 +3890,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3913,31 +3916,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3946,14 +3949,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3963,14 +3966,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3986,7 +3989,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3996,14 +3999,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4012,14 +4015,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4029,14 +4032,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4052,24 +4055,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4078,31 +4081,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4118,7 +4121,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4128,14 +4131,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4144,14 +4147,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4161,14 +4164,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4184,7 +4187,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4194,14 +4197,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4210,14 +4213,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4227,14 +4230,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>11</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4243,14 +4246,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4260,14 +4263,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4283,7 +4286,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4293,14 +4296,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4309,14 +4312,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4326,14 +4329,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4342,14 +4345,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4359,14 +4362,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4382,7 +4385,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4392,14 +4395,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4408,14 +4411,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>15</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4425,14 +4428,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4441,14 +4444,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4458,14 +4461,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4474,31 +4477,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>63</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4507,7 +4510,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4520,18 +4523,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4540,14 +4543,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4557,14 +4560,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4580,7 +4583,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4590,14 +4593,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4606,14 +4609,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4623,14 +4626,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4639,14 +4642,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4656,14 +4659,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4672,14 +4675,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4689,14 +4692,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>153</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4712,7 +4715,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4722,14 +4725,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4738,31 +4741,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>249</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4771,31 +4774,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4811,7 +4814,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4821,14 +4824,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4837,14 +4840,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4854,14 +4857,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4887,14 +4890,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4903,14 +4906,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4920,14 +4923,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4936,31 +4939,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4969,31 +4972,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>192</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5009,7 +5012,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5019,14 +5022,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5035,14 +5038,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5052,14 +5055,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5068,14 +5071,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5085,14 +5088,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5101,14 +5104,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5118,14 +5121,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5141,7 +5144,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5151,14 +5154,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>296</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5167,14 +5170,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5184,14 +5187,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>286</v>
+        <v>66</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5200,14 +5203,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5217,14 +5220,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5233,14 +5236,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5250,14 +5253,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>247</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5266,14 +5269,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>15</v>
+        <v>308</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5283,14 +5286,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>11</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5299,31 +5302,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5332,31 +5335,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>119</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>120</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5372,24 +5375,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>317</v>
+        <v>179</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>250</v>
+        <v>123</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5398,31 +5401,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>320</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5431,31 +5434,31 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>322</v>
+        <v>34</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>31</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5464,31 +5467,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>15</v>
+        <v>302</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5497,31 +5500,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>328</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5530,31 +5533,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>15</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5563,31 +5566,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>333</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5596,31 +5599,31 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>46</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5636,24 +5639,24 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>250</v>
+        <v>49</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>175</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5669,24 +5672,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>340</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>11</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5695,31 +5698,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>31</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5735,24 +5738,24 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>344</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5761,31 +5764,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5801,24 +5804,24 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>347</v>
+        <v>26</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5827,68 +5830,101 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" ht="25.5" customHeight="1">
-      <c r="N133" s="13">
-        <v>8184.5150000000003</v>
-      </c>
-      <c r="O133" s="13"/>
-      <c r="P133" s="13"/>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>349</v>
       </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>302</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>98</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>84</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" ht="26.25" customHeight="1">
+      <c r="N134" s="13">
+        <v>8196.5149999999994</v>
+      </c>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
         <v>350</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
         <v>351</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>352</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6527,10 +6563,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="N133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
